--- a/course-outline.xlsx
+++ b/course-outline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\Personal\SideHustles\PersonalTeaching\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\GitHub\intro-to-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9CFDD6-0871-4F00-AF0B-D51EC278AB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B81AA9-5E3E-4D46-A4BE-2D1A15AB80A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{3620952E-9F89-45DB-B6C9-E261AD3EDEAB}"/>
+    <workbookView xWindow="-12168" yWindow="12900" windowWidth="23256" windowHeight="12576" xr2:uid="{3620952E-9F89-45DB-B6C9-E261AD3EDEAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,10 +445,7 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -457,7 +454,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -479,14 +479,14 @@
     <tableColumn id="1" xr3:uid="{4B7C25A8-E2CD-4981-835C-A0E88782B081}" name="Activity No."/>
     <tableColumn id="2" xr3:uid="{26E43427-81E1-483B-A1A0-E40E77994299}" name="Day"/>
     <tableColumn id="3" xr3:uid="{C857A173-41EC-46DF-B062-DF6FD91F9E40}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{C7631CA7-5E2B-4633-BE29-2E38EBF36E14}" name="Start Time" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{633031BD-1F0B-497F-8C9D-CFE98CC6FBD7}" name="End Time" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{C7631CA7-5E2B-4633-BE29-2E38EBF36E14}" name="Start Time" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{633031BD-1F0B-497F-8C9D-CFE98CC6FBD7}" name="End Time" dataDxfId="3">
       <calculatedColumnFormula>Table1[[#This Row],[Start Time]]+Table1[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{6AFFE52E-3ABE-499E-A7AD-732E1FE146EC}" name="Activity Type"/>
-    <tableColumn id="4" xr3:uid="{25A555C6-C625-4548-AEF7-DB1A9645C0AE}" name="Title" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{ED4EF70B-E435-4757-B3BF-3D7B57379822}" name="Description" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{F216EEE4-8125-49A3-81DC-9BB354915B8A}" name="Examples" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{25A555C6-C625-4548-AEF7-DB1A9645C0AE}" name="Title" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{ED4EF70B-E435-4757-B3BF-3D7B57379822}" name="Description" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{F216EEE4-8125-49A3-81DC-9BB354915B8A}" name="Examples" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7273A1-1682-403D-B375-4CCF0C901CC7}">
   <dimension ref="B2:P43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/course-outline.xlsx
+++ b/course-outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\GitHub\intro-to-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B81AA9-5E3E-4D46-A4BE-2D1A15AB80A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3881484-EA79-4E6F-81E2-5BAAF9CDCBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-12168" yWindow="12900" windowWidth="23256" windowHeight="12576" xr2:uid="{3620952E-9F89-45DB-B6C9-E261AD3EDEAB}"/>
   </bookViews>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7273A1-1682-403D-B375-4CCF0C901CC7}">
   <dimension ref="B2:P43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/course-outline.xlsx
+++ b/course-outline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\GitHub\intro-to-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3881484-EA79-4E6F-81E2-5BAAF9CDCBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E2A624-489F-46CC-AD8B-14B28A217C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12168" yWindow="12900" windowWidth="23256" windowHeight="12576" xr2:uid="{3620952E-9F89-45DB-B6C9-E261AD3EDEAB}"/>
+    <workbookView xWindow="-13845" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{3620952E-9F89-45DB-B6C9-E261AD3EDEAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="70">
   <si>
     <r>
       <rPr>
@@ -69,9 +69,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Examples</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
@@ -91,15 +88,6 @@
   </si>
   <si>
     <t>- Students sign up to google colab and create their first jupyter notebook</t>
-  </si>
-  <si>
-    <t>name = "Jonathan" 
-age = 20
-height = 178.15
-hobbies = ["movies", "running"]</t>
-  </si>
-  <si>
-    <t>Python Variables and manipulating variables</t>
   </si>
   <si>
     <t>- Introduce students to Python Variables and different data types
@@ -124,22 +112,7 @@
     <t xml:space="preserve">- Introduce students to conditionals - if, elif, else. </t>
   </si>
   <si>
-    <t xml:space="preserve">if name == "Jonathan": 
-   print("Hello Jon")
-else: 
-   print("Hello stranger") 
-if "movies" in hobbies: 
-   print("You're a movie enthusiast!") </t>
-  </si>
-  <si>
     <t xml:space="preserve">- Practice conditional statements (if, elif, else) for various data types (string, numeric, list). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">for i in range(5): 
-   print(i)
-shopping_list = ["chicken", "eggs", "cucumber"]
-for item in shopping_list: 
-   print(item) </t>
   </si>
   <si>
     <t>For Loops</t>
@@ -162,14 +135,6 @@
     <t>- Introduce to students python functions</t>
   </si>
   <si>
-    <t>def say_hello_world(): 
-   print("hello world") 
-def say_hello(name):
-   print(f"hello {name}")
-def addition(x,y):  
-   return x+y</t>
-  </si>
-  <si>
     <t>- Practice python functions using a combination of if statements and loops</t>
   </si>
   <si>
@@ -186,19 +151,7 @@
 - Practice while loops</t>
   </si>
   <si>
-    <t xml:space="preserve">continue = True 
-While continue: 
-   user_input = input("Do you wish to continue (Y/N) 
-   if user_input.lower() == "y": 
-      continue = True 
-   else: 
-      continue = False </t>
-  </si>
-  <si>
     <t>- Introduce students to while loops</t>
-  </si>
-  <si>
-    <t>Instructor do</t>
   </si>
   <si>
     <t>Recap</t>
@@ -210,84 +163,21 @@
   - Functions</t>
   </si>
   <si>
-    <t>Dictionaries</t>
-  </si>
-  <si>
-    <t>- Introduce students to python dictionaries</t>
-  </si>
-  <si>
-    <t>movie = {
-  name: "Lord of the rings", 
-  rating: 8.1, 
-  actors: ["This guy", "That guy"]
-}
-print(movie["name"])</t>
-  </si>
-  <si>
-    <t>- Students practice dictionaries with if statements and for loops</t>
-  </si>
-  <si>
-    <t>Using modules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Introduction to Python modules and how to import and alias </t>
-  </si>
-  <si>
-    <t xml:space="preserve">import math
-import math as m
-from math import sqrt </t>
-  </si>
-  <si>
     <t>Pandas</t>
   </si>
   <si>
-    <t>import pandas as pd 
-df = pd.read_csv("titanic.csv")
-df.head() 
-df[["colA", "colB", "colC"]] # select columns 
-df["Class"=="FirstClass"] # filter data 
-df.to_csv("filtered_titanic.csv") # output data</t>
-  </si>
-  <si>
     <t>- Basic practice using the Pandas library</t>
-  </si>
-  <si>
-    <t>Plotly</t>
   </si>
   <si>
     <t>- Introduce the plotly library 
 - Create basic bar chart with the plotly library</t>
   </si>
   <si>
-    <t>import plotly.express as px 
-import pandas as pd 
-df = pd.read("population.csv")
-fig = px.bar(df, x="year", y="pop")
-fig.show()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Create basic charts using bar and one other chart type from their research </t>
-  </si>
-  <si>
     <t xml:space="preserve">Working with Geo Data </t>
   </si>
   <si>
     <t>- Introduce students to the GeoJson data format: https://geojson.org/
 - https://datatracker.ietf.org/doc/html/rfc7946</t>
-  </si>
-  <si>
-    <t>Plotly - Scatter plots on Mapbox</t>
-  </si>
-  <si>
-    <t>- Use GeoJson data (lat,lng) and plot onto a map
-- Students to get mapbox API key</t>
-  </si>
-  <si>
-    <t>import plotly.express as px
-px.set_mapbox_access_token(open(".mapbox_token").read())
-df = px.data.carshare()
-fig = px.scatter_mapbox(df, lat="centroid_lat", lon="centroid_lon",     color="peak_hour", size="car_hours", zoom=10)
-fig.show()</t>
   </si>
   <si>
     <t xml:space="preserve">- Introduce students to the pandas library (refer to Pandas docs) 
@@ -300,12 +190,6 @@
     <t>- Students create their own markers on map using Plotly and Mapbox</t>
   </si>
   <si>
-    <t xml:space="preserve">Google Earth Engine Taster </t>
-  </si>
-  <si>
-    <t>- Other map types (e.g. choropleth) and taster for Google Earth Engine</t>
-  </si>
-  <si>
     <t xml:space="preserve">- Troubleshooting issues. </t>
   </si>
   <si>
@@ -336,30 +220,6 @@
     <t>2.10</t>
   </si>
   <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>2.12</t>
-  </si>
-  <si>
-    <t>2.13</t>
-  </si>
-  <si>
-    <t>2.14</t>
-  </si>
-  <si>
-    <t>2.15</t>
-  </si>
-  <si>
-    <t>2.16</t>
-  </si>
-  <si>
-    <t>2.17</t>
-  </si>
-  <si>
-    <t>2.18</t>
-  </si>
-  <si>
     <t>Introduction to Python Bootcamp</t>
   </si>
   <si>
@@ -370,6 +230,54 @@
   </si>
   <si>
     <t>End Time</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Python Variables</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>Python modules</t>
+  </si>
+  <si>
+    <t>- Introduce students python modules</t>
+  </si>
+  <si>
+    <t>Pandas Groupby and Plotly</t>
+  </si>
+  <si>
+    <t>Bushfire data</t>
+  </si>
+  <si>
+    <t>Choropleth data</t>
+  </si>
+  <si>
+    <t>Introduce students to advance geodata and chropleth plot</t>
+  </si>
+  <si>
+    <t>VIC School Zones</t>
+  </si>
+  <si>
+    <t>WA Suburbs</t>
   </si>
 </sst>
 </file>
@@ -486,7 +394,7 @@
     <tableColumn id="7" xr3:uid="{6AFFE52E-3ABE-499E-A7AD-732E1FE146EC}" name="Activity Type"/>
     <tableColumn id="4" xr3:uid="{25A555C6-C625-4548-AEF7-DB1A9645C0AE}" name="Title" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{ED4EF70B-E435-4757-B3BF-3D7B57379822}" name="Description" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{F216EEE4-8125-49A3-81DC-9BB354915B8A}" name="Examples" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{F216EEE4-8125-49A3-81DC-9BB354915B8A}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -791,23 +699,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7273A1-1682-403D-B375-4CCF0C901CC7}">
   <dimension ref="B2:P43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="45.85546875" customWidth="1"/>
-    <col min="9" max="9" width="42.28515625" customWidth="1"/>
-    <col min="10" max="10" width="41.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="45.88671875" customWidth="1"/>
+    <col min="9" max="9" width="42.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -815,7 +723,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -826,7 +734,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="2:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
@@ -845,7 +753,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -855,24 +763,24 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
         <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
       </c>
       <c r="H7" t="s">
         <v>2</v>
@@ -881,10 +789,10 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>1.1000000000000001</v>
       </c>
@@ -902,19 +810,17 @@
         <v>0.75</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>1.2</v>
       </c>
@@ -933,19 +839,17 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="45" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>1.3</v>
       </c>
@@ -964,21 +868,19 @@
         <v>0.77430555555555547</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -995,21 +897,19 @@
         <v>0.77777777777777768</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
-        <v>1.5</v>
+        <v>9</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1026,21 +926,19 @@
         <v>0.78819444444444431</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
-        <v>1.6</v>
+        <v>17</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1057,21 +955,19 @@
         <v>0.79861111111111094</v>
       </c>
       <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
-        <v>1.7</v>
+        <v>18</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1088,22 +984,18 @@
         <v>0.80208333333333315</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="7">
-        <v>1.8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
       <c r="C15">
         <v>1</v>
       </c>
@@ -1119,21 +1011,19 @@
         <v>0.82291666666666652</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
-        <v>1.9</v>
+        <v>9</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1150,21 +1040,19 @@
         <v>0.83333333333333315</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
-        <v>1.1000000000000001</v>
+        <v>21</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1181,21 +1069,19 @@
         <v>0.84374999999999978</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
-        <v>1.1100000000000001</v>
+        <v>20</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1212,21 +1098,19 @@
         <v>0.84722222222222199</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>1.1200000000000001</v>
+        <v>9</v>
+      </c>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
+        <v>1.8</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1243,21 +1127,19 @@
         <v>0.8506944444444442</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>1.1299999999999999</v>
+        <v>30</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="7">
+        <v>1.9</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1274,21 +1156,19 @@
         <v>0.86111111111111083</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>1.1399999999999999</v>
+        <v>29</v>
+      </c>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="7">
+        <v>1.9</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1305,19 +1185,19 @@
         <v>0.86458333333333304</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>1.1499999999999999</v>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="7">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1334,21 +1214,19 @@
         <v>0.87499999999999967</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>1.1599999999999999</v>
+        <v>24</v>
+      </c>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1365,21 +1243,19 @@
         <v>0.88888888888888851</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>1.17</v>
+        <v>25</v>
+      </c>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1396,20 +1272,17 @@
         <v>0.89236111111111072</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>1.18</v>
-      </c>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>1</v>
       </c>
@@ -1425,20 +1298,18 @@
         <v>0.89583333333333293</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B26" s="7">
-        <v>2.1</v>
-      </c>
+    <row r="26" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
       <c r="C26">
         <v>2</v>
       </c>
@@ -1453,21 +1324,19 @@
         <v>0.73958333333333326</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1484,27 +1353,25 @@
         <v>0.74999999999999989</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" s="6">
-        <v>1.3888888888888888E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" ref="E28:E43" si="1">F27</f>
@@ -1512,55 +1379,51 @@
       </c>
       <c r="F28" s="6">
         <f>Table1[[#This Row],[Start Time]]+Table1[[#This Row],[Duration]]</f>
-        <v>0.76388888888888873</v>
+        <v>0.76041666666666652</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" s="6">
-        <v>3.472222222222222E-3</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="1"/>
-        <v>0.76388888888888873</v>
+        <v>0.76041666666666652</v>
       </c>
       <c r="F29" s="6">
         <f>Table1[[#This Row],[Start Time]]+Table1[[#This Row],[Duration]]</f>
-        <v>0.76736111111111094</v>
+        <v>0.77430555555555536</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1570,183 +1433,165 @@
       </c>
       <c r="E30" s="6">
         <f t="shared" si="1"/>
-        <v>0.76736111111111094</v>
+        <v>0.77430555555555536</v>
       </c>
       <c r="F30" s="6">
         <f>Table1[[#This Row],[Start Time]]+Table1[[#This Row],[Duration]]</f>
-        <v>0.77430555555555536</v>
+        <v>0.78124999999999978</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
-        <v>69</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="7"/>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" s="6">
-        <v>1.0416666666666666E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E31" s="6">
         <f t="shared" si="1"/>
-        <v>0.77430555555555536</v>
+        <v>0.78124999999999978</v>
       </c>
       <c r="F31" s="6">
         <f>Table1[[#This Row],[Start Time]]+Table1[[#This Row],[Duration]]</f>
-        <v>0.78472222222222199</v>
+        <v>0.80208333333333315</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="H31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" s="6">
-        <v>1.3888888888888888E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E32" s="6">
         <f t="shared" si="1"/>
-        <v>0.78472222222222199</v>
+        <v>0.80208333333333315</v>
       </c>
       <c r="F32" s="6">
         <f>Table1[[#This Row],[Start Time]]+Table1[[#This Row],[Duration]]</f>
-        <v>0.79861111111111083</v>
+        <v>0.81249999999999978</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" s="6">
-        <v>6.9444444444444441E-3</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="E33" s="6">
         <f t="shared" si="1"/>
-        <v>0.79861111111111083</v>
+        <v>0.81249999999999978</v>
       </c>
       <c r="F33" s="6">
         <f>Table1[[#This Row],[Start Time]]+Table1[[#This Row],[Duration]]</f>
-        <v>0.80555555555555525</v>
+        <v>0.82986111111111094</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" s="6">
-        <v>2.0833333333333332E-2</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="E34" s="6">
         <f t="shared" si="1"/>
-        <v>0.80555555555555525</v>
+        <v>0.82986111111111094</v>
       </c>
       <c r="F34" s="6">
         <f>Table1[[#This Row],[Start Time]]+Table1[[#This Row],[Duration]]</f>
-        <v>0.82638888888888862</v>
+        <v>0.83333333333333315</v>
       </c>
       <c r="G34" t="s">
-        <v>83</v>
-      </c>
-      <c r="H34" t="s">
-        <v>83</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35" s="6">
-        <v>1.0416666666666666E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E35" s="6">
         <f t="shared" si="1"/>
-        <v>0.82638888888888862</v>
+        <v>0.83333333333333315</v>
       </c>
       <c r="F35" s="6">
         <f>Table1[[#This Row],[Start Time]]+Table1[[#This Row],[Duration]]</f>
-        <v>0.83680555555555525</v>
+        <v>0.84027777777777757</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1756,28 +1601,26 @@
       </c>
       <c r="E36" s="6">
         <f t="shared" si="1"/>
-        <v>0.83680555555555525</v>
+        <v>0.84027777777777757</v>
       </c>
       <c r="F36" s="6">
         <f>Table1[[#This Row],[Start Time]]+Table1[[#This Row],[Duration]]</f>
-        <v>0.84722222222222188</v>
+        <v>0.8506944444444442</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1787,24 +1630,26 @@
       </c>
       <c r="E37" s="6">
         <f t="shared" si="1"/>
-        <v>0.84722222222222188</v>
+        <v>0.8506944444444442</v>
       </c>
       <c r="F37" s="6">
         <f>Table1[[#This Row],[Start Time]]+Table1[[#This Row],[Duration]]</f>
-        <v>0.85069444444444409</v>
+        <v>0.85416666666666641</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -1814,28 +1659,26 @@
       </c>
       <c r="E38" s="6">
         <f t="shared" si="1"/>
-        <v>0.85069444444444409</v>
+        <v>0.85416666666666641</v>
       </c>
       <c r="F38" s="6">
         <f>Table1[[#This Row],[Start Time]]+Table1[[#This Row],[Duration]]</f>
-        <v>0.85763888888888851</v>
+        <v>0.86111111111111083</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" ht="135" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -1845,122 +1688,104 @@
       </c>
       <c r="E39" s="6">
         <f t="shared" si="1"/>
-        <v>0.85763888888888851</v>
+        <v>0.86111111111111083</v>
       </c>
       <c r="F39" s="6">
         <f>Table1[[#This Row],[Start Time]]+Table1[[#This Row],[Duration]]</f>
-        <v>0.86805555555555514</v>
+        <v>0.87152777777777746</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40" s="6">
-        <v>1.3888888888888888E-2</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="E40" s="6">
         <f t="shared" si="1"/>
-        <v>0.86805555555555514</v>
+        <v>0.87152777777777746</v>
       </c>
       <c r="F40" s="6">
         <f>Table1[[#This Row],[Start Time]]+Table1[[#This Row],[Duration]]</f>
-        <v>0.88194444444444398</v>
+        <v>0.87499999999999967</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41" s="6">
-        <v>3.472222222222222E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E41" s="6">
         <f t="shared" si="1"/>
-        <v>0.88194444444444398</v>
+        <v>0.87499999999999967</v>
       </c>
       <c r="F41" s="6">
         <f>Table1[[#This Row],[Start Time]]+Table1[[#This Row],[Duration]]</f>
-        <v>0.88541666666666619</v>
+        <v>0.8854166666666663</v>
       </c>
       <c r="G41" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42" s="6">
-        <v>6.9444444444444441E-3</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="E42" s="6">
         <f t="shared" si="1"/>
-        <v>0.88541666666666619</v>
+        <v>0.8854166666666663</v>
       </c>
       <c r="F42" s="6">
         <f>Table1[[#This Row],[Start Time]]+Table1[[#This Row],[Duration]]</f>
-        <v>0.89236111111111061</v>
+        <v>0.88888888888888851</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
-        <v>81</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="7"/>
       <c r="C43">
         <v>2</v>
       </c>
@@ -1969,24 +1794,22 @@
       </c>
       <c r="E43" s="6">
         <f t="shared" si="1"/>
-        <v>0.89236111111111061</v>
+        <v>0.88888888888888851</v>
       </c>
       <c r="F43" s="6">
         <f>Table1[[#This Row],[Start Time]]+Table1[[#This Row],[Duration]]</f>
-        <v>0.89583333333333282</v>
+        <v>0.89236111111111072</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J43" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
